--- a/generated_docs/WR_89754704_WeekEnding_081025.xlsx
+++ b/generated_docs/WR_89754704_WeekEnding_081025.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I77"/>
+  <dimension ref="A2:I97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:48 AM</t>
+          <t>Report Generated On: 08/18/2025 09:49 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>13049.68</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>1581.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +867,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +901,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -935,7 +935,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -969,7 +969,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1207,28 +1207,28 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
@@ -1237,11 +1237,11 @@
         </is>
       </c>
       <c r="F30" s="10" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1271,11 +1271,11 @@
         </is>
       </c>
       <c r="F31" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
@@ -1305,11 +1305,11 @@
         </is>
       </c>
       <c r="F32" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>62.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E33" s="12" t="inlineStr">
@@ -1343,28 +1343,28 @@
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>34.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="9" t="inlineStr">
         <is>
-          <t>Point 39</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>POL-45-3</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pole,45ft,Class 3</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1373,32 +1373,32 @@
         </is>
       </c>
       <c r="F34" s="10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="12" t="inlineStr">
         <is>
-          <t>Point 39</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
@@ -1407,32 +1407,32 @@
         </is>
       </c>
       <c r="F35" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="9" t="inlineStr">
         <is>
-          <t>Point 39</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D36" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E36" s="9" t="inlineStr">
@@ -1441,11 +1441,11 @@
         </is>
       </c>
       <c r="F36" s="10" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B37" s="12" t="inlineStr">
         <is>
-          <t>POL-45-2</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C37" s="12" t="inlineStr">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 2</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E37" s="12" t="inlineStr">
@@ -1475,11 +1475,11 @@
         </is>
       </c>
       <c r="F37" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="B38" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C38" s="9" t="inlineStr">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="D38" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E38" s="9" t="inlineStr">
@@ -1513,28 +1513,28 @@
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="12" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 39</t>
         </is>
       </c>
       <c r="B39" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C39" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D39" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E39" s="12" t="inlineStr">
@@ -1543,32 +1543,32 @@
         </is>
       </c>
       <c r="F39" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="9" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 39</t>
         </is>
       </c>
       <c r="B40" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>POL-45-2</t>
         </is>
       </c>
       <c r="C40" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D40" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>Pole,45ft,Class 2</t>
         </is>
       </c>
       <c r="E40" s="9" t="inlineStr">
@@ -1581,28 +1581,28 @@
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="12" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 39</t>
         </is>
       </c>
       <c r="B41" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C41" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D41" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E41" s="12" t="inlineStr">
@@ -1611,32 +1611,32 @@
         </is>
       </c>
       <c r="F41" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>62.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="9" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 39</t>
         </is>
       </c>
       <c r="B42" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C42" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D42" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E42" s="9" t="inlineStr">
@@ -1645,32 +1645,32 @@
         </is>
       </c>
       <c r="F42" s="10" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>34.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="12" t="inlineStr">
         <is>
-          <t>Point 45</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B43" s="12" t="inlineStr">
         <is>
-          <t>CNA-TM</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C43" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D43" s="12" t="inlineStr">
         <is>
-          <t>CNA,Trim Trees Minor</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E43" s="12" t="inlineStr">
@@ -1679,32 +1679,32 @@
         </is>
       </c>
       <c r="F43" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>107.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="9" t="inlineStr">
         <is>
-          <t>Point 45</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B44" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C44" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D44" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E44" s="9" t="inlineStr">
@@ -1713,32 +1713,32 @@
         </is>
       </c>
       <c r="F44" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="12" t="inlineStr">
         <is>
-          <t>Point 45</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B45" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C45" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D45" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E45" s="12" t="inlineStr">
@@ -1747,32 +1747,32 @@
         </is>
       </c>
       <c r="F45" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45" s="13" t="inlineStr"/>
       <c r="H45" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="9" t="inlineStr">
         <is>
-          <t>Point 45</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B46" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>POL-45-5</t>
         </is>
       </c>
       <c r="C46" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D46" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>Pole,45ft,Class 5</t>
         </is>
       </c>
       <c r="E46" s="9" t="inlineStr">
@@ -1781,32 +1781,32 @@
         </is>
       </c>
       <c r="F46" s="10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="12" t="inlineStr">
         <is>
-          <t>Point 45</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B47" s="12" t="inlineStr">
         <is>
-          <t>POL-45-2</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C47" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D47" s="12" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 2</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E47" s="12" t="inlineStr">
@@ -1815,32 +1815,32 @@
         </is>
       </c>
       <c r="F47" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" s="13" t="inlineStr"/>
       <c r="H47" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="9" t="inlineStr">
         <is>
-          <t>Point 45</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B48" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C48" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D48" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E48" s="9" t="inlineStr">
@@ -1849,32 +1849,32 @@
         </is>
       </c>
       <c r="F48" s="10" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G48" s="10" t="inlineStr"/>
       <c r="H48" s="11" t="n">
-        <v>165.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="12" t="inlineStr">
         <is>
-          <t>Point 46</t>
+          <t>Point 45</t>
         </is>
       </c>
       <c r="B49" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>CNA-TM</t>
         </is>
       </c>
       <c r="C49" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D49" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>CNA,Trim Trees Minor</t>
         </is>
       </c>
       <c r="E49" s="12" t="inlineStr">
@@ -1883,32 +1883,32 @@
         </is>
       </c>
       <c r="F49" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G49" s="13" t="inlineStr"/>
       <c r="H49" s="14" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="9" t="inlineStr">
         <is>
-          <t>Point 46</t>
+          <t>Point 45</t>
         </is>
       </c>
       <c r="B50" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C50" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D50" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E50" s="9" t="inlineStr">
@@ -1917,32 +1917,32 @@
         </is>
       </c>
       <c r="F50" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G50" s="10" t="inlineStr"/>
       <c r="H50" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="12" t="inlineStr">
         <is>
-          <t>Point 46</t>
+          <t>Point 45</t>
         </is>
       </c>
       <c r="B51" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C51" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D51" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E51" s="12" t="inlineStr">
@@ -1951,22 +1951,22 @@
         </is>
       </c>
       <c r="F51" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G51" s="13" t="inlineStr"/>
       <c r="H51" s="14" t="n">
-        <v>51.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="9" t="inlineStr">
         <is>
-          <t>Point 51</t>
+          <t>Point 45</t>
         </is>
       </c>
       <c r="B52" s="9" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-DL</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C52" s="9" t="inlineStr">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="D52" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,DE Light</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E52" s="9" t="inlineStr">
@@ -1985,22 +1985,22 @@
         </is>
       </c>
       <c r="F52" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" s="10" t="inlineStr"/>
       <c r="H52" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="12" t="inlineStr">
         <is>
-          <t>Point 51</t>
+          <t>Point 45</t>
         </is>
       </c>
       <c r="B53" s="12" t="inlineStr">
         <is>
-          <t>DEC-795AL</t>
+          <t>POL-45-2</t>
         </is>
       </c>
       <c r="C53" s="12" t="inlineStr">
@@ -2010,7 +2010,7 @@
       </c>
       <c r="D53" s="12" t="inlineStr">
         <is>
-          <t>DEC,#477 - #795 AL,AS</t>
+          <t>Pole,45ft,Class 2</t>
         </is>
       </c>
       <c r="E53" s="12" t="inlineStr">
@@ -2019,22 +2019,22 @@
         </is>
       </c>
       <c r="F53" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G53" s="13" t="inlineStr"/>
       <c r="H53" s="14" t="n">
-        <v>858.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="9" t="inlineStr">
         <is>
-          <t>Point 51</t>
+          <t>Point 45</t>
         </is>
       </c>
       <c r="B54" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C54" s="9" t="inlineStr">
@@ -2044,7 +2044,7 @@
       </c>
       <c r="D54" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E54" s="9" t="inlineStr">
@@ -2053,22 +2053,22 @@
         </is>
       </c>
       <c r="F54" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G54" s="10" t="inlineStr"/>
       <c r="H54" s="11" t="n">
-        <v>158.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="12" t="inlineStr">
         <is>
-          <t>Point 51</t>
+          <t>Point 45</t>
         </is>
       </c>
       <c r="B55" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-N-GH</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C55" s="12" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="D55" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,None,Guy Hook</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E55" s="12" t="inlineStr">
@@ -2087,32 +2087,32 @@
         </is>
       </c>
       <c r="F55" s="13" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G55" s="13" t="inlineStr"/>
       <c r="H55" s="14" t="n">
-        <v>79.34999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="9" t="inlineStr">
         <is>
-          <t>Point 51</t>
+          <t>Point 46</t>
         </is>
       </c>
       <c r="B56" s="9" t="inlineStr">
         <is>
-          <t>PAA-DI-10</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C56" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D56" s="9" t="inlineStr">
         <is>
-          <t>PAA, 1/0 DE Grip w/Thimble</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E56" s="9" t="inlineStr">
@@ -2121,32 +2121,32 @@
         </is>
       </c>
       <c r="F56" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G56" s="10" t="inlineStr"/>
       <c r="H56" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="12" t="inlineStr">
         <is>
-          <t>Point 51</t>
+          <t>Point 46</t>
         </is>
       </c>
       <c r="B57" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C57" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D57" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E57" s="12" t="inlineStr">
@@ -2159,28 +2159,28 @@
       </c>
       <c r="G57" s="13" t="inlineStr"/>
       <c r="H57" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="9" t="inlineStr">
         <is>
-          <t>Point 51</t>
+          <t>Point 46</t>
         </is>
       </c>
       <c r="B58" s="9" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>POL-45-3</t>
         </is>
       </c>
       <c r="C58" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D58" s="9" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>Pole,45ft,Class 3</t>
         </is>
       </c>
       <c r="E58" s="9" t="inlineStr">
@@ -2189,22 +2189,22 @@
         </is>
       </c>
       <c r="F58" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" s="10" t="inlineStr"/>
       <c r="H58" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="12" t="inlineStr">
         <is>
-          <t>Point 52</t>
+          <t>Point 46</t>
         </is>
       </c>
       <c r="B59" s="12" t="inlineStr">
         <is>
-          <t>ARM-8D-60S</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C59" s="12" t="inlineStr">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="D59" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Double Wood,60in Sgl.Wd</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E59" s="12" t="inlineStr">
@@ -2223,22 +2223,22 @@
         </is>
       </c>
       <c r="F59" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G59" s="13" t="inlineStr"/>
       <c r="H59" s="14" t="n">
-        <v>73.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="9" t="inlineStr">
         <is>
-          <t>Point 52</t>
+          <t>Point 46</t>
         </is>
       </c>
       <c r="B60" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C60" s="9" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="D60" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E60" s="9" t="inlineStr">
@@ -2257,32 +2257,32 @@
         </is>
       </c>
       <c r="F60" s="10" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="G60" s="10" t="inlineStr"/>
       <c r="H60" s="11" t="n">
-        <v>35.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="12" t="inlineStr">
         <is>
-          <t>Point 52</t>
+          <t>Point 51</t>
         </is>
       </c>
       <c r="B61" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-N-GH</t>
+          <t>ARM-8SF-GN-DL</t>
         </is>
       </c>
       <c r="C61" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D61" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,None,Guy Hook</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,DE Light</t>
         </is>
       </c>
       <c r="E61" s="12" t="inlineStr">
@@ -2295,28 +2295,28 @@
       </c>
       <c r="G61" s="13" t="inlineStr"/>
       <c r="H61" s="14" t="n">
-        <v>35.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="9" t="inlineStr">
         <is>
-          <t>Point 52</t>
+          <t>Point 51</t>
         </is>
       </c>
       <c r="B62" s="9" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>DEC-795AL</t>
         </is>
       </c>
       <c r="C62" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D62" s="9" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>DEC,#477 - #795 AL,AS</t>
         </is>
       </c>
       <c r="E62" s="9" t="inlineStr">
@@ -2325,22 +2325,22 @@
         </is>
       </c>
       <c r="F62" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G62" s="10" t="inlineStr"/>
       <c r="H62" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="12" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 51</t>
         </is>
       </c>
       <c r="B63" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL</t>
+          <t>GYD-MPY</t>
         </is>
       </c>
       <c r="C63" s="12" t="inlineStr">
@@ -2350,7 +2350,7 @@
       </c>
       <c r="D63" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>GYD,Marker-Plastic-Yellow</t>
         </is>
       </c>
       <c r="E63" s="12" t="inlineStr">
@@ -2359,32 +2359,32 @@
         </is>
       </c>
       <c r="F63" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63" s="13" t="inlineStr"/>
       <c r="H63" s="14" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="9" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 51</t>
         </is>
       </c>
       <c r="B64" s="9" t="inlineStr">
         <is>
-          <t>ARM-8S-60S</t>
+          <t>GYF-38-D-78P-EP</t>
         </is>
       </c>
       <c r="C64" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D64" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
         </is>
       </c>
       <c r="E64" s="9" t="inlineStr">
@@ -2393,22 +2393,22 @@
         </is>
       </c>
       <c r="F64" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G64" s="10" t="inlineStr"/>
       <c r="H64" s="11" t="n">
-        <v>61.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="12" t="inlineStr">
         <is>
-          <t>Point 39</t>
+          <t>Point 51</t>
         </is>
       </c>
       <c r="B65" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL</t>
+          <t>GYF-38-D-N-GH</t>
         </is>
       </c>
       <c r="C65" s="12" t="inlineStr">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="D65" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>GYF,3/8,Down,None,Guy Hook</t>
         </is>
       </c>
       <c r="E65" s="12" t="inlineStr">
@@ -2431,62 +2431,62 @@
       </c>
       <c r="G65" s="13" t="inlineStr"/>
       <c r="H65" s="14" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="9" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 51</t>
         </is>
       </c>
       <c r="B66" s="9" t="inlineStr">
         <is>
-          <t>ARM-8S-60S</t>
+          <t>GYW-38</t>
         </is>
       </c>
       <c r="C66" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D66" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+          <t>GYW,3/8 in. EHS (15,400 lbs)</t>
         </is>
       </c>
       <c r="E66" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F66" s="10" t="n">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="G66" s="10" t="inlineStr"/>
       <c r="H66" s="11" t="n">
-        <v>61.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="12" t="inlineStr">
         <is>
-          <t>Point 45</t>
+          <t>Point 51</t>
         </is>
       </c>
       <c r="B67" s="12" t="inlineStr">
         <is>
-          <t>ARM-8S-60S</t>
+          <t>PAA-DI-10</t>
         </is>
       </c>
       <c r="C67" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D67" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+          <t>PAA, 1/0 DE Grip w/Thimble</t>
         </is>
       </c>
       <c r="E67" s="12" t="inlineStr">
@@ -2499,28 +2499,28 @@
       </c>
       <c r="G67" s="13" t="inlineStr"/>
       <c r="H67" s="14" t="n">
-        <v>61.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="9" t="inlineStr">
         <is>
-          <t>Point 46</t>
+          <t>Point 51</t>
         </is>
       </c>
       <c r="B68" s="9" t="inlineStr">
         <is>
-          <t>ARM-8S-60S</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C68" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D68" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E68" s="9" t="inlineStr">
@@ -2533,28 +2533,28 @@
       </c>
       <c r="G68" s="10" t="inlineStr"/>
       <c r="H68" s="11" t="n">
-        <v>61.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="12" t="inlineStr">
         <is>
-          <t>Point 52</t>
+          <t>Point 51</t>
         </is>
       </c>
       <c r="B69" s="12" t="inlineStr">
         <is>
-          <t>ANC-DHM-8-84-D34</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C69" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,8in,84in,Db Eye 3/4in</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E69" s="12" t="inlineStr">
@@ -2567,28 +2567,28 @@
       </c>
       <c r="G69" s="13" t="inlineStr"/>
       <c r="H69" s="14" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="9" t="inlineStr">
         <is>
-          <t>Point 45</t>
+          <t>Point 52</t>
         </is>
       </c>
       <c r="B70" s="9" t="inlineStr">
         <is>
-          <t>CNA-TM</t>
+          <t>ARM-8D-60S</t>
         </is>
       </c>
       <c r="C70" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D70" s="9" t="inlineStr">
         <is>
-          <t>CNA,Trim Trees Minor</t>
+          <t>ARM,8ft Double Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E70" s="9" t="inlineStr">
@@ -2601,28 +2601,28 @@
       </c>
       <c r="G70" s="10" t="inlineStr"/>
       <c r="H70" s="11" t="n">
-        <v>107.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="12" t="inlineStr">
         <is>
-          <t>Point 45</t>
+          <t>Point 52</t>
         </is>
       </c>
       <c r="B71" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>GYD-MPY</t>
         </is>
       </c>
       <c r="C71" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D71" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>GYD,Marker-Plastic-Yellow</t>
         </is>
       </c>
       <c r="E71" s="12" t="inlineStr">
@@ -2631,22 +2631,22 @@
         </is>
       </c>
       <c r="F71" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G71" s="13" t="inlineStr"/>
       <c r="H71" s="14" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="9" t="inlineStr">
         <is>
-          <t>Point 46</t>
+          <t>Point 52</t>
         </is>
       </c>
       <c r="B72" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>GYF-38-D-78P-EP</t>
         </is>
       </c>
       <c r="C72" s="9" t="inlineStr">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="D72" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
         </is>
       </c>
       <c r="E72" s="9" t="inlineStr">
@@ -2665,22 +2665,22 @@
         </is>
       </c>
       <c r="F72" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G72" s="10" t="inlineStr"/>
       <c r="H72" s="11" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="12" t="inlineStr">
         <is>
-          <t>Point 46</t>
+          <t>Point 52</t>
         </is>
       </c>
       <c r="B73" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>GYF-38-D-N-GH</t>
         </is>
       </c>
       <c r="C73" s="12" t="inlineStr">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="D73" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>GYF,3/8,Down,None,Guy Hook</t>
         </is>
       </c>
       <c r="E73" s="12" t="inlineStr">
@@ -2703,18 +2703,18 @@
       </c>
       <c r="G73" s="13" t="inlineStr"/>
       <c r="H73" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="9" t="inlineStr">
         <is>
-          <t>Point 46</t>
+          <t>Point 52</t>
         </is>
       </c>
       <c r="B74" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>GYW-38</t>
         </is>
       </c>
       <c r="C74" s="9" t="inlineStr">
@@ -2724,31 +2724,31 @@
       </c>
       <c r="D74" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>GYW,3/8 in. EHS (15,400 lbs)</t>
         </is>
       </c>
       <c r="E74" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F74" s="10" t="n">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="G74" s="10" t="inlineStr"/>
       <c r="H74" s="11" t="n">
-        <v>62.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="12" t="inlineStr">
         <is>
-          <t>Point 46</t>
+          <t>Point 52</t>
         </is>
       </c>
       <c r="B75" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>PLD-EYE</t>
         </is>
       </c>
       <c r="C75" s="12" t="inlineStr">
@@ -2758,7 +2758,7 @@
       </c>
       <c r="D75" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>PLD,Eyebolt Deadend</t>
         </is>
       </c>
       <c r="E75" s="12" t="inlineStr">
@@ -2767,11 +2767,11 @@
         </is>
       </c>
       <c r="F75" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G75" s="13" t="inlineStr"/>
       <c r="H75" s="14" t="n">
-        <v>51.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2782,7 +2782,7 @@
       </c>
       <c r="B76" s="9" t="inlineStr">
         <is>
-          <t>ARM-8D-60S</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C76" s="9" t="inlineStr">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="D76" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Double Wood,60in Sgl.Wd</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E76" s="9" t="inlineStr">
@@ -2805,27 +2805,707 @@
       </c>
       <c r="G76" s="10" t="inlineStr"/>
       <c r="H76" s="11" t="n">
-        <v>73.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="15" t="inlineStr">
+      <c r="A77" s="12" t="inlineStr">
+        <is>
+          <t>Point 37</t>
+        </is>
+      </c>
+      <c r="B77" s="12" t="inlineStr">
+        <is>
+          <t>ARM-8SF-GN-TL</t>
+        </is>
+      </c>
+      <c r="C77" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D77" s="12" t="inlineStr">
+        <is>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+        </is>
+      </c>
+      <c r="E77" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F77" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" s="13" t="inlineStr"/>
+      <c r="H77" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="inlineStr">
+        <is>
+          <t>Point 38</t>
+        </is>
+      </c>
+      <c r="B78" s="9" t="inlineStr">
+        <is>
+          <t>ARM-8S-60S</t>
+        </is>
+      </c>
+      <c r="C78" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D78" s="9" t="inlineStr">
+        <is>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+        </is>
+      </c>
+      <c r="E78" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F78" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" s="10" t="inlineStr"/>
+      <c r="H78" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="12" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B79" s="12" t="inlineStr">
+        <is>
+          <t>ARM-8SF-GN-TL</t>
+        </is>
+      </c>
+      <c r="C79" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D79" s="12" t="inlineStr">
+        <is>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+        </is>
+      </c>
+      <c r="E79" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F79" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" s="13" t="inlineStr"/>
+      <c r="H79" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="9" t="inlineStr">
+        <is>
+          <t>Point 40</t>
+        </is>
+      </c>
+      <c r="B80" s="9" t="inlineStr">
+        <is>
+          <t>ARM-8S-60S</t>
+        </is>
+      </c>
+      <c r="C80" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D80" s="9" t="inlineStr">
+        <is>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+        </is>
+      </c>
+      <c r="E80" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F80" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" s="10" t="inlineStr"/>
+      <c r="H80" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="12" t="inlineStr">
+        <is>
+          <t>Point 45</t>
+        </is>
+      </c>
+      <c r="B81" s="12" t="inlineStr">
+        <is>
+          <t>ARM-8S-60S</t>
+        </is>
+      </c>
+      <c r="C81" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D81" s="12" t="inlineStr">
+        <is>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+        </is>
+      </c>
+      <c r="E81" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F81" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" s="13" t="inlineStr"/>
+      <c r="H81" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="9" t="inlineStr">
+        <is>
+          <t>Point 46</t>
+        </is>
+      </c>
+      <c r="B82" s="9" t="inlineStr">
+        <is>
+          <t>ARM-8S-60S</t>
+        </is>
+      </c>
+      <c r="C82" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D82" s="9" t="inlineStr">
+        <is>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+        </is>
+      </c>
+      <c r="E82" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F82" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" s="10" t="inlineStr"/>
+      <c r="H82" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="12" t="inlineStr">
+        <is>
+          <t>Point 51</t>
+        </is>
+      </c>
+      <c r="B83" s="12" t="inlineStr">
+        <is>
+          <t>ANC-DHM-8-84-D34</t>
+        </is>
+      </c>
+      <c r="C83" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D83" s="12" t="inlineStr">
+        <is>
+          <t>ANC,Dbl Hlx Mach,8in,84in,Db Eye 3/4in</t>
+        </is>
+      </c>
+      <c r="E83" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F83" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" s="13" t="inlineStr"/>
+      <c r="H83" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="9" t="inlineStr">
+        <is>
+          <t>Point 51</t>
+        </is>
+      </c>
+      <c r="B84" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-D-S-C</t>
+        </is>
+      </c>
+      <c r="C84" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D84" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E84" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F84" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G84" s="10" t="inlineStr"/>
+      <c r="H84" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="12" t="inlineStr">
+        <is>
+          <t>Point 52</t>
+        </is>
+      </c>
+      <c r="B85" s="12" t="inlineStr">
+        <is>
+          <t>ANC-DHM-8-84-D34</t>
+        </is>
+      </c>
+      <c r="C85" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D85" s="12" t="inlineStr">
+        <is>
+          <t>ANC,Dbl Hlx Mach,8in,84in,Db Eye 3/4in</t>
+        </is>
+      </c>
+      <c r="E85" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F85" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" s="13" t="inlineStr"/>
+      <c r="H85" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="9" t="inlineStr">
+        <is>
+          <t>Point 52</t>
+        </is>
+      </c>
+      <c r="B86" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-D-S-C</t>
+        </is>
+      </c>
+      <c r="C86" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D86" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E86" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F86" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G86" s="10" t="inlineStr"/>
+      <c r="H86" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="12" t="inlineStr">
+        <is>
+          <t>Point 52</t>
+        </is>
+      </c>
+      <c r="B87" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-4</t>
+        </is>
+      </c>
+      <c r="C87" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D87" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 4</t>
+        </is>
+      </c>
+      <c r="E87" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F87" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" s="13" t="inlineStr"/>
+      <c r="H87" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="9" t="inlineStr">
+        <is>
+          <t>Point 45</t>
+        </is>
+      </c>
+      <c r="B88" s="9" t="inlineStr">
+        <is>
+          <t>CNA-TM</t>
+        </is>
+      </c>
+      <c r="C88" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D88" s="9" t="inlineStr">
+        <is>
+          <t>CNA,Trim Trees Minor</t>
+        </is>
+      </c>
+      <c r="E88" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F88" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" s="10" t="inlineStr"/>
+      <c r="H88" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="12" t="inlineStr">
+        <is>
+          <t>Point 45</t>
+        </is>
+      </c>
+      <c r="B89" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C89" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D89" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E89" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F89" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G89" s="13" t="inlineStr"/>
+      <c r="H89" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="9" t="inlineStr">
+        <is>
+          <t>Point 46</t>
+        </is>
+      </c>
+      <c r="B90" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C90" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D90" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E90" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F90" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G90" s="10" t="inlineStr"/>
+      <c r="H90" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="12" t="inlineStr">
+        <is>
+          <t>Point 46</t>
+        </is>
+      </c>
+      <c r="B91" s="12" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-K</t>
+        </is>
+      </c>
+      <c r="C91" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D91" s="12" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Contaminated</t>
+        </is>
+      </c>
+      <c r="E91" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F91" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" s="13" t="inlineStr"/>
+      <c r="H91" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="9" t="inlineStr">
+        <is>
+          <t>Point 46</t>
+        </is>
+      </c>
+      <c r="B92" s="9" t="inlineStr">
+        <is>
+          <t>PIN-XAA</t>
+        </is>
+      </c>
+      <c r="C92" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D92" s="9" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm,8in</t>
+        </is>
+      </c>
+      <c r="E92" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F92" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G92" s="10" t="inlineStr"/>
+      <c r="H92" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="12" t="inlineStr">
+        <is>
+          <t>Point 46</t>
+        </is>
+      </c>
+      <c r="B93" s="12" t="inlineStr">
+        <is>
+          <t>SAA-3-CV</t>
+        </is>
+      </c>
+      <c r="C93" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D93" s="12" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E93" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F93" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G93" s="13" t="inlineStr"/>
+      <c r="H93" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="9" t="inlineStr">
+        <is>
+          <t>Point 46</t>
+        </is>
+      </c>
+      <c r="B94" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C94" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D94" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E94" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F94" s="10" t="n">
+        <v>36</v>
+      </c>
+      <c r="G94" s="10" t="inlineStr"/>
+      <c r="H94" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="12" t="inlineStr">
+        <is>
+          <t>Point 52</t>
+        </is>
+      </c>
+      <c r="B95" s="12" t="inlineStr">
+        <is>
+          <t>ARM-8D-60S</t>
+        </is>
+      </c>
+      <c r="C95" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D95" s="12" t="inlineStr">
+        <is>
+          <t>ARM,8ft Double Wood,60in Sgl.Wd</t>
+        </is>
+      </c>
+      <c r="E95" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F95" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G95" s="13" t="inlineStr"/>
+      <c r="H95" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="9" t="inlineStr">
+        <is>
+          <t>Point 52</t>
+        </is>
+      </c>
+      <c r="B96" s="9" t="inlineStr">
+        <is>
+          <t>GYD-MPY</t>
+        </is>
+      </c>
+      <c r="C96" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D96" s="9" t="inlineStr">
+        <is>
+          <t>GYD,Marker-Plastic-Yellow</t>
+        </is>
+      </c>
+      <c r="E96" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F96" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" s="10" t="inlineStr"/>
+      <c r="H96" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H77" s="16" t="n">
-        <v>13049.68</v>
+      <c r="H97" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A97:G97"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A77:G77"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A14:H14"/>

--- a/generated_docs/WR_89754704_WeekEnding_081025.xlsx
+++ b/generated_docs/WR_89754704_WeekEnding_081025.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I97"/>
+  <dimension ref="A2:I77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:49 PM</t>
+          <t>Report Generated On: 08/26/2025 10:01 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>13049.68</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P80</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +795,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +829,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>1581.12</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +863,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +897,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="21">
@@ -935,7 +931,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="22">
@@ -969,7 +965,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="23">
@@ -1003,7 +999,7 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="24">
@@ -1037,7 +1033,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="25">
@@ -1071,7 +1067,7 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="26">
@@ -1105,7 +1101,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="27">
@@ -1139,7 +1135,7 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="28">
@@ -1173,7 +1169,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="29">
@@ -1207,28 +1203,28 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
@@ -1237,11 +1233,11 @@
         </is>
       </c>
       <c r="F30" s="10" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="31">
@@ -1252,7 +1248,7 @@
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
@@ -1262,7 +1258,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1271,11 +1267,11 @@
         </is>
       </c>
       <c r="F31" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="32">
@@ -1286,7 +1282,7 @@
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
@@ -1296,7 +1292,7 @@
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
@@ -1305,11 +1301,11 @@
         </is>
       </c>
       <c r="F32" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>0</v>
+        <v>62.16</v>
       </c>
     </row>
     <row r="33">
@@ -1320,7 +1316,7 @@
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
@@ -1330,7 +1326,7 @@
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E33" s="12" t="inlineStr">
@@ -1343,28 +1339,28 @@
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>0</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="9" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 39</t>
         </is>
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>POL-45-3</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 3</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1373,32 +1369,32 @@
         </is>
       </c>
       <c r="F34" s="10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="12" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 39</t>
         </is>
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
@@ -1407,32 +1403,32 @@
         </is>
       </c>
       <c r="F35" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="9" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 39</t>
         </is>
       </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D36" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E36" s="9" t="inlineStr">
@@ -1441,11 +1437,11 @@
         </is>
       </c>
       <c r="F36" s="10" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="37">
@@ -1456,7 +1452,7 @@
       </c>
       <c r="B37" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>POL-45-2</t>
         </is>
       </c>
       <c r="C37" s="12" t="inlineStr">
@@ -1466,7 +1462,7 @@
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pole,45ft,Class 2</t>
         </is>
       </c>
       <c r="E37" s="12" t="inlineStr">
@@ -1475,11 +1471,11 @@
         </is>
       </c>
       <c r="F37" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="38">
@@ -1490,7 +1486,7 @@
       </c>
       <c r="B38" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C38" s="9" t="inlineStr">
@@ -1500,7 +1496,7 @@
       </c>
       <c r="D38" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E38" s="9" t="inlineStr">
@@ -1513,28 +1509,28 @@
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="12" t="inlineStr">
         <is>
-          <t>Point 39</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B39" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C39" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D39" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E39" s="12" t="inlineStr">
@@ -1543,32 +1539,32 @@
         </is>
       </c>
       <c r="F39" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="9" t="inlineStr">
         <is>
-          <t>Point 39</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B40" s="9" t="inlineStr">
         <is>
-          <t>POL-45-2</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C40" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D40" s="9" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 2</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E40" s="9" t="inlineStr">
@@ -1581,28 +1577,28 @@
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="12" t="inlineStr">
         <is>
-          <t>Point 39</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B41" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C41" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D41" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E41" s="12" t="inlineStr">
@@ -1611,32 +1607,32 @@
         </is>
       </c>
       <c r="F41" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>0</v>
+        <v>62.16</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="9" t="inlineStr">
         <is>
-          <t>Point 39</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B42" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C42" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D42" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E42" s="9" t="inlineStr">
@@ -1645,32 +1641,32 @@
         </is>
       </c>
       <c r="F42" s="10" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>0</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="12" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 45</t>
         </is>
       </c>
       <c r="B43" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>CNA-TM</t>
         </is>
       </c>
       <c r="C43" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D43" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>CNA,Trim Trees Minor</t>
         </is>
       </c>
       <c r="E43" s="12" t="inlineStr">
@@ -1679,32 +1675,32 @@
         </is>
       </c>
       <c r="F43" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>0</v>
+        <v>107.92</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="9" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 45</t>
         </is>
       </c>
       <c r="B44" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C44" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D44" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E44" s="9" t="inlineStr">
@@ -1713,32 +1709,32 @@
         </is>
       </c>
       <c r="F44" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="12" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 45</t>
         </is>
       </c>
       <c r="B45" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C45" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D45" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E45" s="12" t="inlineStr">
@@ -1747,32 +1743,32 @@
         </is>
       </c>
       <c r="F45" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45" s="13" t="inlineStr"/>
       <c r="H45" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="9" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 45</t>
         </is>
       </c>
       <c r="B46" s="9" t="inlineStr">
         <is>
-          <t>POL-45-5</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C46" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D46" s="9" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 5</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E46" s="9" t="inlineStr">
@@ -1781,32 +1777,32 @@
         </is>
       </c>
       <c r="F46" s="10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="12" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 45</t>
         </is>
       </c>
       <c r="B47" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>POL-45-2</t>
         </is>
       </c>
       <c r="C47" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D47" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>Pole,45ft,Class 2</t>
         </is>
       </c>
       <c r="E47" s="12" t="inlineStr">
@@ -1815,32 +1811,32 @@
         </is>
       </c>
       <c r="F47" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47" s="13" t="inlineStr"/>
       <c r="H47" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="9" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 45</t>
         </is>
       </c>
       <c r="B48" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C48" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D48" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E48" s="9" t="inlineStr">
@@ -1849,32 +1845,32 @@
         </is>
       </c>
       <c r="F48" s="10" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G48" s="10" t="inlineStr"/>
       <c r="H48" s="11" t="n">
-        <v>0</v>
+        <v>165.54</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="12" t="inlineStr">
         <is>
-          <t>Point 45</t>
+          <t>Point 46</t>
         </is>
       </c>
       <c r="B49" s="12" t="inlineStr">
         <is>
-          <t>CNA-TM</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C49" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D49" s="12" t="inlineStr">
         <is>
-          <t>CNA,Trim Trees Minor</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E49" s="12" t="inlineStr">
@@ -1883,32 +1879,32 @@
         </is>
       </c>
       <c r="F49" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G49" s="13" t="inlineStr"/>
       <c r="H49" s="14" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="9" t="inlineStr">
         <is>
-          <t>Point 45</t>
+          <t>Point 46</t>
         </is>
       </c>
       <c r="B50" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C50" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D50" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E50" s="9" t="inlineStr">
@@ -1917,32 +1913,32 @@
         </is>
       </c>
       <c r="F50" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G50" s="10" t="inlineStr"/>
       <c r="H50" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="12" t="inlineStr">
         <is>
-          <t>Point 45</t>
+          <t>Point 46</t>
         </is>
       </c>
       <c r="B51" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C51" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D51" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E51" s="12" t="inlineStr">
@@ -1951,22 +1947,22 @@
         </is>
       </c>
       <c r="F51" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G51" s="13" t="inlineStr"/>
       <c r="H51" s="14" t="n">
-        <v>0</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="9" t="inlineStr">
         <is>
-          <t>Point 45</t>
+          <t>Point 51</t>
         </is>
       </c>
       <c r="B52" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>ARM-8SF-GN-DL</t>
         </is>
       </c>
       <c r="C52" s="9" t="inlineStr">
@@ -1976,7 +1972,7 @@
       </c>
       <c r="D52" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,DE Light</t>
         </is>
       </c>
       <c r="E52" s="9" t="inlineStr">
@@ -1985,22 +1981,22 @@
         </is>
       </c>
       <c r="F52" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52" s="10" t="inlineStr"/>
       <c r="H52" s="11" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="12" t="inlineStr">
         <is>
-          <t>Point 45</t>
+          <t>Point 51</t>
         </is>
       </c>
       <c r="B53" s="12" t="inlineStr">
         <is>
-          <t>POL-45-2</t>
+          <t>DEC-795AL</t>
         </is>
       </c>
       <c r="C53" s="12" t="inlineStr">
@@ -2010,7 +2006,7 @@
       </c>
       <c r="D53" s="12" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 2</t>
+          <t>DEC,#477 - #795 AL,AS</t>
         </is>
       </c>
       <c r="E53" s="12" t="inlineStr">
@@ -2019,22 +2015,22 @@
         </is>
       </c>
       <c r="F53" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G53" s="13" t="inlineStr"/>
       <c r="H53" s="14" t="n">
-        <v>0</v>
+        <v>858.75</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="9" t="inlineStr">
         <is>
-          <t>Point 45</t>
+          <t>Point 51</t>
         </is>
       </c>
       <c r="B54" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>GYF-38-D-78P-EP</t>
         </is>
       </c>
       <c r="C54" s="9" t="inlineStr">
@@ -2044,7 +2040,7 @@
       </c>
       <c r="D54" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
         </is>
       </c>
       <c r="E54" s="9" t="inlineStr">
@@ -2053,22 +2049,22 @@
         </is>
       </c>
       <c r="F54" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G54" s="10" t="inlineStr"/>
       <c r="H54" s="11" t="n">
-        <v>0</v>
+        <v>158.7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="12" t="inlineStr">
         <is>
-          <t>Point 45</t>
+          <t>Point 51</t>
         </is>
       </c>
       <c r="B55" s="12" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>GYF-38-D-N-GH</t>
         </is>
       </c>
       <c r="C55" s="12" t="inlineStr">
@@ -2078,7 +2074,7 @@
       </c>
       <c r="D55" s="12" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>GYF,3/8,Down,None,Guy Hook</t>
         </is>
       </c>
       <c r="E55" s="12" t="inlineStr">
@@ -2087,32 +2083,32 @@
         </is>
       </c>
       <c r="F55" s="13" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G55" s="13" t="inlineStr"/>
       <c r="H55" s="14" t="n">
-        <v>0</v>
+        <v>79.34999999999999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="9" t="inlineStr">
         <is>
-          <t>Point 46</t>
+          <t>Point 51</t>
         </is>
       </c>
       <c r="B56" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PAA-DI-10</t>
         </is>
       </c>
       <c r="C56" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D56" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>PAA, 1/0 DE Grip w/Thimble</t>
         </is>
       </c>
       <c r="E56" s="9" t="inlineStr">
@@ -2121,32 +2117,32 @@
         </is>
       </c>
       <c r="F56" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G56" s="10" t="inlineStr"/>
       <c r="H56" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="12" t="inlineStr">
         <is>
-          <t>Point 46</t>
+          <t>Point 51</t>
         </is>
       </c>
       <c r="B57" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C57" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D57" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E57" s="12" t="inlineStr">
@@ -2159,28 +2155,28 @@
       </c>
       <c r="G57" s="13" t="inlineStr"/>
       <c r="H57" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="9" t="inlineStr">
         <is>
-          <t>Point 46</t>
+          <t>Point 51</t>
         </is>
       </c>
       <c r="B58" s="9" t="inlineStr">
         <is>
-          <t>POL-45-3</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C58" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D58" s="9" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 3</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E58" s="9" t="inlineStr">
@@ -2189,22 +2185,22 @@
         </is>
       </c>
       <c r="F58" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" s="10" t="inlineStr"/>
       <c r="H58" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="12" t="inlineStr">
         <is>
-          <t>Point 46</t>
+          <t>Point 52</t>
         </is>
       </c>
       <c r="B59" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>ARM-8D-60S</t>
         </is>
       </c>
       <c r="C59" s="12" t="inlineStr">
@@ -2214,7 +2210,7 @@
       </c>
       <c r="D59" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>ARM,8ft Double Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E59" s="12" t="inlineStr">
@@ -2223,22 +2219,22 @@
         </is>
       </c>
       <c r="F59" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G59" s="13" t="inlineStr"/>
       <c r="H59" s="14" t="n">
-        <v>0</v>
+        <v>73.73</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="9" t="inlineStr">
         <is>
-          <t>Point 46</t>
+          <t>Point 52</t>
         </is>
       </c>
       <c r="B60" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>GYF-38-D-78P-EP</t>
         </is>
       </c>
       <c r="C60" s="9" t="inlineStr">
@@ -2248,7 +2244,7 @@
       </c>
       <c r="D60" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
         </is>
       </c>
       <c r="E60" s="9" t="inlineStr">
@@ -2257,32 +2253,32 @@
         </is>
       </c>
       <c r="F60" s="10" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="G60" s="10" t="inlineStr"/>
       <c r="H60" s="11" t="n">
-        <v>0</v>
+        <v>35.58</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="12" t="inlineStr">
         <is>
-          <t>Point 51</t>
+          <t>Point 52</t>
         </is>
       </c>
       <c r="B61" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-DL</t>
+          <t>GYF-38-D-N-GH</t>
         </is>
       </c>
       <c r="C61" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D61" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,DE Light</t>
+          <t>GYF,3/8,Down,None,Guy Hook</t>
         </is>
       </c>
       <c r="E61" s="12" t="inlineStr">
@@ -2295,28 +2291,28 @@
       </c>
       <c r="G61" s="13" t="inlineStr"/>
       <c r="H61" s="14" t="n">
-        <v>0</v>
+        <v>35.58</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="9" t="inlineStr">
         <is>
-          <t>Point 51</t>
+          <t>Point 52</t>
         </is>
       </c>
       <c r="B62" s="9" t="inlineStr">
         <is>
-          <t>DEC-795AL</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C62" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D62" s="9" t="inlineStr">
         <is>
-          <t>DEC,#477 - #795 AL,AS</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E62" s="9" t="inlineStr">
@@ -2325,22 +2321,22 @@
         </is>
       </c>
       <c r="F62" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G62" s="10" t="inlineStr"/>
       <c r="H62" s="11" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="12" t="inlineStr">
         <is>
-          <t>Point 51</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B63" s="12" t="inlineStr">
         <is>
-          <t>GYD-MPY</t>
+          <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
       <c r="C63" s="12" t="inlineStr">
@@ -2350,7 +2346,7 @@
       </c>
       <c r="D63" s="12" t="inlineStr">
         <is>
-          <t>GYD,Marker-Plastic-Yellow</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E63" s="12" t="inlineStr">
@@ -2359,32 +2355,32 @@
         </is>
       </c>
       <c r="F63" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G63" s="13" t="inlineStr"/>
       <c r="H63" s="14" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="9" t="inlineStr">
         <is>
-          <t>Point 51</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B64" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP</t>
+          <t>ARM-8S-60S</t>
         </is>
       </c>
       <c r="C64" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D64" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E64" s="9" t="inlineStr">
@@ -2393,22 +2389,22 @@
         </is>
       </c>
       <c r="F64" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G64" s="10" t="inlineStr"/>
       <c r="H64" s="11" t="n">
-        <v>0</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="12" t="inlineStr">
         <is>
-          <t>Point 51</t>
+          <t>Point 39</t>
         </is>
       </c>
       <c r="B65" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-N-GH</t>
+          <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
       <c r="C65" s="12" t="inlineStr">
@@ -2418,7 +2414,7 @@
       </c>
       <c r="D65" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,None,Guy Hook</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E65" s="12" t="inlineStr">
@@ -2431,62 +2427,62 @@
       </c>
       <c r="G65" s="13" t="inlineStr"/>
       <c r="H65" s="14" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="9" t="inlineStr">
         <is>
-          <t>Point 51</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B66" s="9" t="inlineStr">
         <is>
-          <t>GYW-38</t>
+          <t>ARM-8S-60S</t>
         </is>
       </c>
       <c r="C66" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D66" s="9" t="inlineStr">
         <is>
-          <t>GYW,3/8 in. EHS (15,400 lbs)</t>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E66" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F66" s="10" t="n">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="G66" s="10" t="inlineStr"/>
       <c r="H66" s="11" t="n">
-        <v>0</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="12" t="inlineStr">
         <is>
-          <t>Point 51</t>
+          <t>Point 45</t>
         </is>
       </c>
       <c r="B67" s="12" t="inlineStr">
         <is>
-          <t>PAA-DI-10</t>
+          <t>ARM-8S-60S</t>
         </is>
       </c>
       <c r="C67" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D67" s="12" t="inlineStr">
         <is>
-          <t>PAA, 1/0 DE Grip w/Thimble</t>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E67" s="12" t="inlineStr">
@@ -2499,28 +2495,28 @@
       </c>
       <c r="G67" s="13" t="inlineStr"/>
       <c r="H67" s="14" t="n">
-        <v>0</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="9" t="inlineStr">
         <is>
-          <t>Point 51</t>
+          <t>Point 46</t>
         </is>
       </c>
       <c r="B68" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>ARM-8S-60S</t>
         </is>
       </c>
       <c r="C68" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D68" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E68" s="9" t="inlineStr">
@@ -2533,28 +2529,28 @@
       </c>
       <c r="G68" s="10" t="inlineStr"/>
       <c r="H68" s="11" t="n">
-        <v>0</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="12" t="inlineStr">
         <is>
-          <t>Point 51</t>
+          <t>Point 52</t>
         </is>
       </c>
       <c r="B69" s="12" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>ANC-DHM-8-84-D34</t>
         </is>
       </c>
       <c r="C69" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>ANC,Dbl Hlx Mach,8in,84in,Db Eye 3/4in</t>
         </is>
       </c>
       <c r="E69" s="12" t="inlineStr">
@@ -2567,28 +2563,28 @@
       </c>
       <c r="G69" s="13" t="inlineStr"/>
       <c r="H69" s="14" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="9" t="inlineStr">
         <is>
-          <t>Point 52</t>
+          <t>Point 45</t>
         </is>
       </c>
       <c r="B70" s="9" t="inlineStr">
         <is>
-          <t>ARM-8D-60S</t>
+          <t>CNA-TM</t>
         </is>
       </c>
       <c r="C70" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D70" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Double Wood,60in Sgl.Wd</t>
+          <t>CNA,Trim Trees Minor</t>
         </is>
       </c>
       <c r="E70" s="9" t="inlineStr">
@@ -2601,28 +2597,28 @@
       </c>
       <c r="G70" s="10" t="inlineStr"/>
       <c r="H70" s="11" t="n">
-        <v>0</v>
+        <v>107.92</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="12" t="inlineStr">
         <is>
-          <t>Point 52</t>
+          <t>Point 45</t>
         </is>
       </c>
       <c r="B71" s="12" t="inlineStr">
         <is>
-          <t>GYD-MPY</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C71" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D71" s="12" t="inlineStr">
         <is>
-          <t>GYD,Marker-Plastic-Yellow</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E71" s="12" t="inlineStr">
@@ -2631,22 +2627,22 @@
         </is>
       </c>
       <c r="F71" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G71" s="13" t="inlineStr"/>
       <c r="H71" s="14" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="9" t="inlineStr">
         <is>
-          <t>Point 52</t>
+          <t>Point 46</t>
         </is>
       </c>
       <c r="B72" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C72" s="9" t="inlineStr">
@@ -2656,7 +2652,7 @@
       </c>
       <c r="D72" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E72" s="9" t="inlineStr">
@@ -2665,22 +2661,22 @@
         </is>
       </c>
       <c r="F72" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G72" s="10" t="inlineStr"/>
       <c r="H72" s="11" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="12" t="inlineStr">
         <is>
-          <t>Point 52</t>
+          <t>Point 46</t>
         </is>
       </c>
       <c r="B73" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-N-GH</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C73" s="12" t="inlineStr">
@@ -2690,7 +2686,7 @@
       </c>
       <c r="D73" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,None,Guy Hook</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E73" s="12" t="inlineStr">
@@ -2703,18 +2699,18 @@
       </c>
       <c r="G73" s="13" t="inlineStr"/>
       <c r="H73" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="9" t="inlineStr">
         <is>
-          <t>Point 52</t>
+          <t>Point 46</t>
         </is>
       </c>
       <c r="B74" s="9" t="inlineStr">
         <is>
-          <t>GYW-38</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C74" s="9" t="inlineStr">
@@ -2724,31 +2720,31 @@
       </c>
       <c r="D74" s="9" t="inlineStr">
         <is>
-          <t>GYW,3/8 in. EHS (15,400 lbs)</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E74" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F74" s="10" t="n">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G74" s="10" t="inlineStr"/>
       <c r="H74" s="11" t="n">
-        <v>0</v>
+        <v>62.16</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="12" t="inlineStr">
         <is>
-          <t>Point 52</t>
+          <t>Point 46</t>
         </is>
       </c>
       <c r="B75" s="12" t="inlineStr">
         <is>
-          <t>PLD-EYE</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C75" s="12" t="inlineStr">
@@ -2758,7 +2754,7 @@
       </c>
       <c r="D75" s="12" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E75" s="12" t="inlineStr">
@@ -2767,11 +2763,11 @@
         </is>
       </c>
       <c r="F75" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G75" s="13" t="inlineStr"/>
       <c r="H75" s="14" t="n">
-        <v>0</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="76">
@@ -2782,7 +2778,7 @@
       </c>
       <c r="B76" s="9" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>ARM-8D-60S</t>
         </is>
       </c>
       <c r="C76" s="9" t="inlineStr">
@@ -2792,7 +2788,7 @@
       </c>
       <c r="D76" s="9" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>ARM,8ft Double Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E76" s="9" t="inlineStr">
@@ -2805,707 +2801,27 @@
       </c>
       <c r="G76" s="10" t="inlineStr"/>
       <c r="H76" s="11" t="n">
-        <v>0</v>
+        <v>73.73</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="12" t="inlineStr">
-        <is>
-          <t>Point 37</t>
-        </is>
-      </c>
-      <c r="B77" s="12" t="inlineStr">
-        <is>
-          <t>ARM-8SF-GN-TL</t>
-        </is>
-      </c>
-      <c r="C77" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D77" s="12" t="inlineStr">
-        <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
-        </is>
-      </c>
-      <c r="E77" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F77" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G77" s="13" t="inlineStr"/>
-      <c r="H77" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="9" t="inlineStr">
-        <is>
-          <t>Point 38</t>
-        </is>
-      </c>
-      <c r="B78" s="9" t="inlineStr">
-        <is>
-          <t>ARM-8S-60S</t>
-        </is>
-      </c>
-      <c r="C78" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D78" s="9" t="inlineStr">
-        <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
-        </is>
-      </c>
-      <c r="E78" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F78" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G78" s="10" t="inlineStr"/>
-      <c r="H78" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="12" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B79" s="12" t="inlineStr">
-        <is>
-          <t>ARM-8SF-GN-TL</t>
-        </is>
-      </c>
-      <c r="C79" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D79" s="12" t="inlineStr">
-        <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
-        </is>
-      </c>
-      <c r="E79" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F79" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G79" s="13" t="inlineStr"/>
-      <c r="H79" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="9" t="inlineStr">
-        <is>
-          <t>Point 40</t>
-        </is>
-      </c>
-      <c r="B80" s="9" t="inlineStr">
-        <is>
-          <t>ARM-8S-60S</t>
-        </is>
-      </c>
-      <c r="C80" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D80" s="9" t="inlineStr">
-        <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
-        </is>
-      </c>
-      <c r="E80" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F80" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G80" s="10" t="inlineStr"/>
-      <c r="H80" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="12" t="inlineStr">
-        <is>
-          <t>Point 45</t>
-        </is>
-      </c>
-      <c r="B81" s="12" t="inlineStr">
-        <is>
-          <t>ARM-8S-60S</t>
-        </is>
-      </c>
-      <c r="C81" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D81" s="12" t="inlineStr">
-        <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
-        </is>
-      </c>
-      <c r="E81" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F81" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G81" s="13" t="inlineStr"/>
-      <c r="H81" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="9" t="inlineStr">
-        <is>
-          <t>Point 46</t>
-        </is>
-      </c>
-      <c r="B82" s="9" t="inlineStr">
-        <is>
-          <t>ARM-8S-60S</t>
-        </is>
-      </c>
-      <c r="C82" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D82" s="9" t="inlineStr">
-        <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
-        </is>
-      </c>
-      <c r="E82" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F82" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G82" s="10" t="inlineStr"/>
-      <c r="H82" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="12" t="inlineStr">
-        <is>
-          <t>Point 51</t>
-        </is>
-      </c>
-      <c r="B83" s="12" t="inlineStr">
-        <is>
-          <t>ANC-DHM-8-84-D34</t>
-        </is>
-      </c>
-      <c r="C83" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D83" s="12" t="inlineStr">
-        <is>
-          <t>ANC,Dbl Hlx Mach,8in,84in,Db Eye 3/4in</t>
-        </is>
-      </c>
-      <c r="E83" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F83" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G83" s="13" t="inlineStr"/>
-      <c r="H83" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="9" t="inlineStr">
-        <is>
-          <t>Point 51</t>
-        </is>
-      </c>
-      <c r="B84" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-D-S-C</t>
-        </is>
-      </c>
-      <c r="C84" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D84" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Deadend,Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E84" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F84" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G84" s="10" t="inlineStr"/>
-      <c r="H84" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="12" t="inlineStr">
-        <is>
-          <t>Point 52</t>
-        </is>
-      </c>
-      <c r="B85" s="12" t="inlineStr">
-        <is>
-          <t>ANC-DHM-8-84-D34</t>
-        </is>
-      </c>
-      <c r="C85" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D85" s="12" t="inlineStr">
-        <is>
-          <t>ANC,Dbl Hlx Mach,8in,84in,Db Eye 3/4in</t>
-        </is>
-      </c>
-      <c r="E85" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F85" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G85" s="13" t="inlineStr"/>
-      <c r="H85" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="9" t="inlineStr">
-        <is>
-          <t>Point 52</t>
-        </is>
-      </c>
-      <c r="B86" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-D-S-C</t>
-        </is>
-      </c>
-      <c r="C86" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D86" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Deadend,Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E86" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F86" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G86" s="10" t="inlineStr"/>
-      <c r="H86" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="12" t="inlineStr">
-        <is>
-          <t>Point 52</t>
-        </is>
-      </c>
-      <c r="B87" s="12" t="inlineStr">
-        <is>
-          <t>POL-40-4</t>
-        </is>
-      </c>
-      <c r="C87" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D87" s="12" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 4</t>
-        </is>
-      </c>
-      <c r="E87" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F87" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G87" s="13" t="inlineStr"/>
-      <c r="H87" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="9" t="inlineStr">
-        <is>
-          <t>Point 45</t>
-        </is>
-      </c>
-      <c r="B88" s="9" t="inlineStr">
-        <is>
-          <t>CNA-TM</t>
-        </is>
-      </c>
-      <c r="C88" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D88" s="9" t="inlineStr">
-        <is>
-          <t>CNA,Trim Trees Minor</t>
-        </is>
-      </c>
-      <c r="E88" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F88" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G88" s="10" t="inlineStr"/>
-      <c r="H88" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="12" t="inlineStr">
-        <is>
-          <t>Point 45</t>
-        </is>
-      </c>
-      <c r="B89" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C89" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D89" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E89" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F89" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G89" s="13" t="inlineStr"/>
-      <c r="H89" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="9" t="inlineStr">
-        <is>
-          <t>Point 46</t>
-        </is>
-      </c>
-      <c r="B90" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C90" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D90" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E90" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F90" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G90" s="10" t="inlineStr"/>
-      <c r="H90" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="12" t="inlineStr">
-        <is>
-          <t>Point 46</t>
-        </is>
-      </c>
-      <c r="B91" s="12" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-K</t>
-        </is>
-      </c>
-      <c r="C91" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D91" s="12" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
-        </is>
-      </c>
-      <c r="E91" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F91" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G91" s="13" t="inlineStr"/>
-      <c r="H91" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="9" t="inlineStr">
-        <is>
-          <t>Point 46</t>
-        </is>
-      </c>
-      <c r="B92" s="9" t="inlineStr">
-        <is>
-          <t>PIN-XAA</t>
-        </is>
-      </c>
-      <c r="C92" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D92" s="9" t="inlineStr">
-        <is>
-          <t>Pin,Crossarm,8in</t>
-        </is>
-      </c>
-      <c r="E92" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F92" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G92" s="10" t="inlineStr"/>
-      <c r="H92" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="12" t="inlineStr">
-        <is>
-          <t>Point 46</t>
-        </is>
-      </c>
-      <c r="B93" s="12" t="inlineStr">
-        <is>
-          <t>SAA-3-CV</t>
-        </is>
-      </c>
-      <c r="C93" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D93" s="12" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis</t>
-        </is>
-      </c>
-      <c r="E93" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F93" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G93" s="13" t="inlineStr"/>
-      <c r="H93" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="9" t="inlineStr">
-        <is>
-          <t>Point 46</t>
-        </is>
-      </c>
-      <c r="B94" s="9" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C94" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D94" s="9" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E94" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F94" s="10" t="n">
-        <v>36</v>
-      </c>
-      <c r="G94" s="10" t="inlineStr"/>
-      <c r="H94" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="12" t="inlineStr">
-        <is>
-          <t>Point 52</t>
-        </is>
-      </c>
-      <c r="B95" s="12" t="inlineStr">
-        <is>
-          <t>ARM-8D-60S</t>
-        </is>
-      </c>
-      <c r="C95" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D95" s="12" t="inlineStr">
-        <is>
-          <t>ARM,8ft Double Wood,60in Sgl.Wd</t>
-        </is>
-      </c>
-      <c r="E95" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F95" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G95" s="13" t="inlineStr"/>
-      <c r="H95" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="9" t="inlineStr">
-        <is>
-          <t>Point 52</t>
-        </is>
-      </c>
-      <c r="B96" s="9" t="inlineStr">
-        <is>
-          <t>GYD-MPY</t>
-        </is>
-      </c>
-      <c r="C96" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D96" s="9" t="inlineStr">
-        <is>
-          <t>GYD,Marker-Plastic-Yellow</t>
-        </is>
-      </c>
-      <c r="E96" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F96" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G96" s="10" t="inlineStr"/>
-      <c r="H96" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="15" t="inlineStr">
+      <c r="A77" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H97" s="16" t="n">
-        <v>0</v>
+      <c r="H77" s="16" t="n">
+        <v>13049.68</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A97:G97"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A77:G77"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A14:H14"/>
